--- a/Rozetka_Project.xlsx
+++ b/Rozetka_Project.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="2505" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Check_List" sheetId="1" r:id="rId1"/>
     <sheet name="Test_Suit" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Cases" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="253">
   <si>
     <t>id_00101</t>
   </si>
@@ -500,9 +501,6 @@
     <t>Password entered</t>
   </si>
   <si>
-    <t>Click the register button</t>
-  </si>
-  <si>
     <t>Registration is successful</t>
   </si>
   <si>
@@ -528,9 +526,6 @@
   </si>
   <si>
     <t>Login to the site as a Google user</t>
-  </si>
-  <si>
-    <t>Log in as a user click on Google</t>
   </si>
   <si>
     <t>A form with accounts and profile confirmation opens</t>
@@ -641,12 +636,259 @@
   <si>
     <t>Check List for cheking of basic functionality as part of functional testing</t>
   </si>
+  <si>
+    <t>Id_1001_01</t>
+  </si>
+  <si>
+    <t>Click on the login icon at the top of the page</t>
+  </si>
+  <si>
+    <t>The login form for the personal account appears</t>
+  </si>
+  <si>
+    <t>Conformity of the login form to the specification</t>
+  </si>
+  <si>
+    <t>The form of entering the personal account corresponds to the specification</t>
+  </si>
+  <si>
+    <t>Compliance of the login form to the personal account acceptance criteria</t>
+  </si>
+  <si>
+    <t>The form of entering the personal account meets the acceptance criteria</t>
+  </si>
+  <si>
+    <t>Compliance of the login form to your account according to the mock-up</t>
+  </si>
+  <si>
+    <t>The form of entering the personal account corresponds to the mock-up</t>
+  </si>
+  <si>
+    <t>Compliance of the text of the login form in the personal account with respect to the requirements of the specification</t>
+  </si>
+  <si>
+    <t>The font size and color of the text of the login form in the personal account meets the requirements</t>
+  </si>
+  <si>
+    <t>Id_1001_02</t>
+  </si>
+  <si>
+    <t>The personal account login form is open</t>
+  </si>
+  <si>
+    <t>Click on the email field</t>
+  </si>
+  <si>
+    <t>A text cursor appears and the user can enter data</t>
+  </si>
+  <si>
+    <t>After clicking on the email field, a text cursor appears and the user can enter data</t>
+  </si>
+  <si>
+    <t>Enter email in English characters</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Login to the account with this email format is possible</t>
+  </si>
+  <si>
+    <t>Login to the site is successful with this email forma</t>
+  </si>
+  <si>
+    <t>Enter email with numbers</t>
+  </si>
+  <si>
+    <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter the email with a soft underline</t>
+  </si>
+  <si>
+    <t>abc_d@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter email address with a dot</t>
+  </si>
+  <si>
+    <t>abc.d@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter email with a hyphen</t>
+  </si>
+  <si>
+    <t>abc-d@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter email with minimal values</t>
+  </si>
+  <si>
+    <t>1@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter email with maximum values</t>
+  </si>
+  <si>
+    <t>64(symbols)@gmail.com</t>
+  </si>
+  <si>
+    <t>Id_1001_03</t>
+  </si>
+  <si>
+    <t>Login to the account, entering invalid values in the email field</t>
+  </si>
+  <si>
+    <t>Do not fill in the email field</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>When entering the site without filling in the email field, the message "Invalid e-mail address or phone number has been entered" appears</t>
+  </si>
+  <si>
+    <t>Email without @</t>
+  </si>
+  <si>
+    <t>abcgmail.com</t>
+  </si>
+  <si>
+    <t>Email with two @</t>
+  </si>
+  <si>
+    <t>abc@@gmail.com</t>
+  </si>
+  <si>
+    <t>E-mail values are greater than the maximum (&gt; 64)</t>
+  </si>
+  <si>
+    <t>&gt; 64(Symbols)gmail.com</t>
+  </si>
+  <si>
+    <t>Email in Cyrillic</t>
+  </si>
+  <si>
+    <t>абв@gmail.com</t>
+  </si>
+  <si>
+    <t>Email special characters</t>
+  </si>
+  <si>
+    <t>%*$@gmai.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Open the website </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>https://rozetka.com.ua/ua/</t>
+    </r>
+  </si>
+  <si>
+    <t>Compliance of the login form to the account with the requirements</t>
+  </si>
+  <si>
+    <t>When entering the site without filling in the email field, the message "The wrong email address or phone number has been entered" appears.</t>
+  </si>
+  <si>
+    <t>When entering more than 64 email characters, the message "Invalid e-mail address or phone number has been entered" appears.</t>
+  </si>
+  <si>
+    <t>When signing in with two @, the message "You entered an invalid email address or phone number" appears.</t>
+  </si>
+  <si>
+    <t>When login without @ the message "The wrong email address or phone number was entered" appears.</t>
+  </si>
+  <si>
+    <t>Entering is impossible the message "Invalid e-mail address or phone number" apeares</t>
+  </si>
+  <si>
+    <t>When Cyrillic is entered, a message "Invalid e-mail address or phone number has been entered" appears</t>
+  </si>
+  <si>
+    <t>@gmail.com</t>
+  </si>
+  <si>
+    <t>Login is possible message "Invalid e-mail address or phone number" apeared</t>
+  </si>
+  <si>
+    <t>Enter without any character before the @ message "You entered an invalid email address or phone number" appears.</t>
+  </si>
+  <si>
+    <t>Email less 1 symbol before @</t>
+  </si>
+  <si>
+    <t>Login to the account, entering  a valid email</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the email field of the login form of the Rozetka site</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF045298"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>https://rozetka.com.ua/ua/</t>
+    </r>
+  </si>
+  <si>
+    <t>Click the "Register" button</t>
+  </si>
+  <si>
+    <t>Log in as a user click on Google account</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>The field there is no limit to the number of characters entered</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,8 +983,30 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF045298"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,8 +1043,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1373,12 +1649,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1414,63 +1851,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1486,25 +1866,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1597,11 +1965,176 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1610,6 +2143,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF045298"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1927,37 +2465,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="A2" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
     </row>
     <row r="6" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="12" t="s">
         <v>2</v>
       </c>
@@ -1975,11 +2513,11 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1989,11 +2527,11 @@
       <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2007,11 +2545,11 @@
       <c r="A9" s="8">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2027,11 +2565,11 @@
       <c r="A10" s="8">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2047,11 +2585,11 @@
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2067,11 +2605,11 @@
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2085,11 +2623,11 @@
       <c r="A13" s="8">
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2103,11 +2641,11 @@
       <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
@@ -2121,11 +2659,11 @@
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
@@ -2139,11 +2677,11 @@
       <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2159,11 +2697,11 @@
       <c r="A17" s="8">
         <v>8</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2179,11 +2717,11 @@
       <c r="A18" s="8">
         <v>9</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2197,11 +2735,11 @@
       <c r="A19" s="8">
         <v>10</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2217,11 +2755,11 @@
       <c r="A20" s="8">
         <v>11</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2237,11 +2775,11 @@
       <c r="A21" s="8">
         <v>11</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
@@ -2257,11 +2795,11 @@
       <c r="A22" s="8">
         <v>12</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2277,11 +2815,11 @@
       <c r="A23" s="8">
         <v>13</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2297,11 +2835,11 @@
       <c r="A24" s="8">
         <v>14</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2317,11 +2855,11 @@
       <c r="A25" s="8">
         <v>15</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2337,11 +2875,11 @@
       <c r="A26" s="8">
         <v>16</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2357,11 +2895,11 @@
       <c r="A27" s="8">
         <v>17</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
@@ -2377,11 +2915,11 @@
       <c r="A28" s="8">
         <v>18</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
@@ -2397,11 +2935,11 @@
       <c r="A29" s="8">
         <v>19</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="2" t="s">
         <v>9</v>
       </c>
@@ -2417,11 +2955,11 @@
       <c r="A30" s="8">
         <v>20</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2435,11 +2973,11 @@
       <c r="A31" s="8">
         <v>21</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
@@ -2455,11 +2993,11 @@
       <c r="A32" s="8">
         <v>22</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="2" t="s">
         <v>15</v>
       </c>
@@ -2475,11 +3013,11 @@
       <c r="A33" s="8">
         <v>23</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="2" t="s">
         <v>9</v>
       </c>
@@ -2495,11 +3033,11 @@
       <c r="A34" s="8">
         <v>20</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2513,11 +3051,11 @@
       <c r="A35" s="8">
         <v>24</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="2" t="s">
         <v>9</v>
       </c>
@@ -2570,26 +3108,26 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="87"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="90"/>
       <c r="E41" s="11" t="s">
         <v>2</v>
       </c>
@@ -2607,25 +3145,25 @@
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="93"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>1</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
       <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
@@ -2640,11 +3178,11 @@
       <c r="A44" s="8">
         <v>2</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
@@ -2658,11 +3196,11 @@
       <c r="A45" s="8">
         <v>3</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="2" t="s">
         <v>70</v>
       </c>
@@ -2698,11 +3236,11 @@
       <c r="A47" s="8">
         <v>5</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="2" t="s">
         <v>70</v>
       </c>
@@ -2718,11 +3256,11 @@
       <c r="A48" s="8">
         <v>6</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
       <c r="E48" s="2" t="s">
         <v>70</v>
       </c>
@@ -2738,11 +3276,11 @@
       <c r="A49" s="8">
         <v>7</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83"/>
       <c r="E49" s="2" t="s">
         <v>70</v>
       </c>
@@ -2758,11 +3296,11 @@
       <c r="A50" s="8">
         <v>8</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="2" t="s">
         <v>9</v>
       </c>
@@ -2778,11 +3316,11 @@
       <c r="A51" s="8">
         <v>9</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="83"/>
       <c r="E51" s="2" t="s">
         <v>70</v>
       </c>
@@ -2798,11 +3336,11 @@
       <c r="A52" s="8">
         <v>10</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="83"/>
       <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
@@ -2818,11 +3356,11 @@
       <c r="A53" s="8">
         <v>11</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="83"/>
       <c r="E53" s="2" t="s">
         <v>70</v>
       </c>
@@ -2838,11 +3376,11 @@
       <c r="A54" s="8">
         <v>12</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="2" t="s">
         <v>70</v>
       </c>
@@ -2858,11 +3396,11 @@
       <c r="A55" s="8">
         <v>13</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="2" t="s">
         <v>70</v>
       </c>
@@ -2878,11 +3416,11 @@
       <c r="A56" s="8">
         <v>14</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
@@ -2898,11 +3436,11 @@
       <c r="A57" s="8">
         <v>15</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="2" t="s">
         <v>70</v>
       </c>
@@ -2918,11 +3456,11 @@
       <c r="A58" s="8">
         <v>16</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="2" t="s">
         <v>70</v>
       </c>
@@ -2938,11 +3476,11 @@
       <c r="A59" s="8">
         <v>17</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="83"/>
       <c r="E59" s="2" t="s">
         <v>70</v>
       </c>
@@ -2958,11 +3496,11 @@
       <c r="A60" s="8">
         <v>18</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
       <c r="E60" s="2" t="s">
         <v>70</v>
       </c>
@@ -2978,11 +3516,11 @@
       <c r="A61" s="8">
         <v>19</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="2" t="s">
         <v>70</v>
       </c>
@@ -2998,11 +3536,11 @@
       <c r="A62" s="8">
         <v>20</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="2" t="s">
         <v>70</v>
       </c>
@@ -3018,11 +3556,11 @@
       <c r="A63" s="8">
         <v>21</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="2" t="s">
         <v>70</v>
       </c>
@@ -3038,11 +3576,11 @@
       <c r="A64" s="8">
         <v>22</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="16"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="84"/>
       <c r="E64" s="2" t="s">
         <v>70</v>
       </c>
@@ -3058,11 +3596,11 @@
       <c r="A65" s="8">
         <v>23</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="83"/>
       <c r="E65" s="2" t="s">
         <v>70</v>
       </c>
@@ -3078,11 +3616,11 @@
       <c r="A66" s="8">
         <v>24</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="83"/>
       <c r="E66" s="2" t="s">
         <v>70</v>
       </c>
@@ -3098,11 +3636,11 @@
       <c r="A67" s="8">
         <v>25</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="2" t="s">
         <v>70</v>
       </c>
@@ -3118,11 +3656,11 @@
       <c r="A68" s="8">
         <v>26</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="83"/>
       <c r="E68" s="2" t="s">
         <v>70</v>
       </c>
@@ -3138,11 +3676,11 @@
       <c r="A69" s="8">
         <v>27</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="83"/>
       <c r="E69" s="2" t="s">
         <v>70</v>
       </c>
@@ -3158,11 +3696,11 @@
       <c r="A70" s="8">
         <v>28</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="83"/>
       <c r="E70" s="2" t="s">
         <v>70</v>
       </c>
@@ -3248,8 +3786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,33 +3806,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="A2" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3324,620 +3862,620 @@
       <c r="J6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="102"/>
+      <c r="B7" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="39">
+      <c r="D7" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="18">
         <v>1</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45">
+      <c r="A8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22">
         <v>2</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="46"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="44" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="22">
         <v>3</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="46"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45">
+      <c r="A10" s="51"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22">
         <v>4</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="46"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45">
+      <c r="A11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22">
         <v>5</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="46"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48">
+      <c r="A12" s="52"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25">
         <v>6</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47" t="s">
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="49"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="B13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="42">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="25">
         <v>2</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="F15" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F16" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G16" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H16" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I16" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J16" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K16" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51" t="s">
+    <row r="17" spans="1:12" ht="39" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="65">
+      <c r="C17" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-    </row>
-    <row r="15" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47" t="s">
+      <c r="F17" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E18" s="22">
         <v>2</v>
       </c>
-      <c r="F15" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="49"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="35" t="s">
+      <c r="F18" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25">
+        <v>3</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C20" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D20" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E20" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F20" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G20" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H20" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I20" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J20" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K20" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="39" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51" t="s">
+    <row r="21" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="65">
+      <c r="C21" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-    </row>
-    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="45">
+      <c r="F21" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="22">
         <v>2</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48">
+      <c r="F22" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22">
         <v>3</v>
       </c>
-      <c r="F19" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="49"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="F23" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25">
+        <v>4</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="44">
+        <v>1</v>
+      </c>
+      <c r="F26" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="45">
         <v>2</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="66" t="s">
+      <c r="F27" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="45">
+        <v>3</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+    </row>
+    <row r="29" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="45">
+        <v>4</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+    </row>
+    <row r="30" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="45">
+        <v>5</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
+    </row>
+    <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="45">
         <v>6</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="65">
-        <v>1</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-    </row>
-    <row r="22" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="45">
-        <v>2</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45">
-        <v>3</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="46"/>
-    </row>
-    <row r="24" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48">
-        <v>4</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="49"/>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="67">
-        <v>1</v>
-      </c>
-      <c r="F26" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
-    </row>
-    <row r="27" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="68">
-        <v>2</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="60"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="68">
-        <v>3</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="60"/>
-    </row>
-    <row r="29" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="68">
-        <v>4</v>
-      </c>
-      <c r="F29" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="60"/>
-    </row>
-    <row r="30" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="68">
-        <v>5</v>
-      </c>
-      <c r="F30" s="59" t="s">
+      <c r="F31" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59" t="s">
+      <c r="G31" s="36"/>
+      <c r="H31" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="60"/>
-    </row>
-    <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="68">
-        <v>6</v>
-      </c>
-      <c r="F31" s="59" t="s">
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+    </row>
+    <row r="32" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="46">
+        <v>7</v>
+      </c>
+      <c r="F32" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59" t="s">
+      <c r="G32" s="40"/>
+      <c r="H32" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-    </row>
-    <row r="32" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="69">
-        <v>7</v>
-      </c>
-      <c r="F32" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3949,4 +4487,673 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="106" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="56"/>
+      <c r="B8" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="22">
+        <v>2</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="22">
+        <v>2</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="22">
+        <v>3</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62">
+        <v>4</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="22">
+        <v>2</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="22">
+        <v>3</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="22">
+        <v>4</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="22">
+        <v>5</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="22">
+        <v>6</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="22">
+        <v>7</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="60"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62">
+        <v>8</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" s="69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" s="67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="22">
+        <v>2</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="58"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="22">
+        <v>3</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="22">
+        <v>4</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="58"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="22">
+        <v>5</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="J35" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" s="109" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="58"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="22">
+        <v>6</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="60"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62">
+        <v>7</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:J4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G32" r:id="rId1" display="http://abcgmail.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>